--- a/demo/images/miner.xlsx
+++ b/demo/images/miner.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="lotus-miner钱包地址-汇总" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="475">
   <si>
     <t>daemon-IP</t>
   </si>
@@ -265,7 +265,7 @@
     <t>10.1.2.32</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1.2.87 </t>
+    <t>10.1.2.87</t>
   </si>
   <si>
     <t>f3rk4gmrkeztuwvpmtsnskdfb347o4et24rnbq57r6rgbadlg3amywidtqpmiyqw7gtf5pqdp6otf6cm2ic56a</t>
@@ -382,7 +382,7 @@
     <t>8267T</t>
   </si>
   <si>
-    <t xml:space="preserve">浙江主流社区 </t>
+    <t>浙江主流社区</t>
   </si>
   <si>
     <t>西安</t>
@@ -409,7 +409,7 @@
     <t>192.168.25.98</t>
   </si>
   <si>
-    <t>192.168.25.121</t>
+    <t>10.1.2.3</t>
   </si>
   <si>
     <t>f3ryly2vcldw6oi4ng3c6xyujvmrzzaq6mjm3cjfsz3c4p532sh7ntjcrgb7wmcqvnvfb2na5pmdtacynykn2q</t>
@@ -421,7 +421,7 @@
     <t>f0109606</t>
   </si>
   <si>
-    <t>192.168.29.48</t>
+    <t>10.1.2.12</t>
   </si>
   <si>
     <t>10.1.18.103</t>
@@ -442,7 +442,7 @@
     <t>10.1.17.49</t>
   </si>
   <si>
-    <t xml:space="preserve"> 192.168.28.155</t>
+    <t>192.168.28.155</t>
   </si>
   <si>
     <t>f3sng5gnjrmmhc6oo4f665z5eiwyqml43cksmham2g4dzikdpvgppxi7zlnt5lh7o3l2v7ej63wzqcrwv3nyjq</t>
@@ -1124,7 +1124,22 @@
     <t>1853T</t>
   </si>
   <si>
+    <t xml:space="preserve">10.1.2.87 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">浙江主流社区 </t>
+  </si>
+  <si>
+    <t>192.168.25.121</t>
+  </si>
+  <si>
+    <t>192.168.29.48</t>
+  </si>
+  <si>
     <t>3886T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 192.168.28.155</t>
   </si>
   <si>
     <t>1050T</t>
@@ -1453,13 +1468,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1548,13 +1563,102 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF606266"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF303133"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF606266"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF303133"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303133"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1567,23 +1671,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1598,7 +1687,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1606,22 +1695,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1643,40 +1717,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1690,8 +1733,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1708,7 +1783,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1789,7 +1864,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,7 +1942,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1813,19 +1966,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1837,91 +1990,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1945,19 +2026,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1974,7 +2055,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2026,11 +2107,86 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1F2329"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1F2329"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF1F2329"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2053,23 +2209,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2114,164 +2264,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2401,8 +2542,86 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2725,10 +2944,10 @@
   <sheetPr/>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -2748,46 +2967,46 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:20">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="66" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="11"/>
@@ -2798,47 +3017,46 @@
       <c r="T1" s="11"/>
     </row>
     <row r="2" ht="15" spans="1:20">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="7">
-        <f t="shared" ref="N2:N43" si="0">IF(COUNTIF(E2,"*T")=1,LEFT(E2,LEN(E2)-1)*1024/LEFT(G2,LEN(G2)-1),LEFT(E2,LEN(E2)-1)*1024*1024/LEFT(G2,LEN(G2)-1))</f>
+      <c r="N2" s="52">
         <v>174016</v>
       </c>
       <c r="O2" s="7"/>
@@ -2849,47 +3067,46 @@
       <c r="T2" s="7"/>
     </row>
     <row r="3" ht="15" spans="1:20">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="K3" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="7">
-        <f t="shared" si="0"/>
+      <c r="N3" s="52">
         <v>49152</v>
       </c>
       <c r="O3" s="7"/>
@@ -2900,47 +3117,46 @@
       <c r="T3" s="7"/>
     </row>
     <row r="4" ht="15" spans="1:20">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="8" t="s">
+      <c r="K4" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="7">
-        <f t="shared" si="0"/>
+      <c r="N4" s="52">
         <v>109440</v>
       </c>
       <c r="O4" s="7"/>
@@ -2951,47 +3167,46 @@
       <c r="T4" s="7"/>
     </row>
     <row r="5" ht="15" spans="1:20">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="I5" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="8" t="s">
+      <c r="K5" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="7">
-        <f t="shared" si="0"/>
+      <c r="N5" s="52">
         <v>49152</v>
       </c>
       <c r="O5" s="7"/>
@@ -3002,47 +3217,46 @@
       <c r="T5" s="7"/>
     </row>
     <row r="6" ht="15" spans="1:20">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="8" t="s">
+      <c r="K6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="7">
-        <f t="shared" si="0"/>
+      <c r="N6" s="52">
         <v>32000</v>
       </c>
       <c r="O6" s="7"/>
@@ -3053,47 +3267,46 @@
       <c r="T6" s="7"/>
     </row>
     <row r="7" ht="15" spans="1:20">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="8" t="s">
+      <c r="K7" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="7">
-        <f t="shared" si="0"/>
+      <c r="N7" s="52">
         <v>98304</v>
       </c>
       <c r="O7" s="7"/>
@@ -3104,47 +3317,46 @@
       <c r="T7" s="7"/>
     </row>
     <row r="8" ht="15" spans="1:20">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="I8" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="8" t="s">
+      <c r="K8" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="7">
-        <f t="shared" si="0"/>
+      <c r="N8" s="52">
         <v>83872</v>
       </c>
       <c r="O8" s="7"/>
@@ -3155,47 +3367,46 @@
       <c r="T8" s="7"/>
     </row>
     <row r="9" ht="15" spans="1:20">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="8" t="s">
+      <c r="K9" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="7">
-        <f t="shared" si="0"/>
+      <c r="N9" s="52">
         <v>32768</v>
       </c>
       <c r="O9" s="7"/>
@@ -3206,47 +3417,46 @@
       <c r="T9" s="7"/>
     </row>
     <row r="10" ht="15" spans="1:20">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="I10" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="8" t="s">
+      <c r="K10" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="N10" s="7">
-        <f t="shared" si="0"/>
+      <c r="N10" s="52">
         <v>40768</v>
       </c>
       <c r="O10" s="7"/>
@@ -3257,47 +3467,46 @@
       <c r="T10" s="7"/>
     </row>
     <row r="11" ht="15" spans="1:20">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="I11" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="8" t="s">
+      <c r="K11" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="M11" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="N11" s="7">
-        <f t="shared" si="0"/>
+      <c r="N11" s="52">
         <v>32768</v>
       </c>
       <c r="O11" s="7"/>
@@ -3308,47 +3517,46 @@
       <c r="T11" s="7"/>
     </row>
     <row r="12" ht="15" spans="1:20">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="I12" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="8" t="s">
+      <c r="K12" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="N12" s="7">
-        <f t="shared" si="0"/>
+      <c r="N12" s="52">
         <v>98304</v>
       </c>
       <c r="O12" s="7"/>
@@ -3359,47 +3567,46 @@
       <c r="T12" s="7"/>
     </row>
     <row r="13" ht="15" spans="1:20">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="I13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="8" t="s">
+      <c r="K13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="N13" s="7">
-        <f t="shared" si="0"/>
+      <c r="N13" s="52">
         <v>65536</v>
       </c>
       <c r="O13" s="7"/>
@@ -3410,47 +3617,46 @@
       <c r="T13" s="7"/>
     </row>
     <row r="14" ht="15" spans="1:20">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="I14" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="8" t="s">
+      <c r="K14" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="N14" s="7">
-        <f t="shared" si="0"/>
+      <c r="N14" s="52">
         <v>25626.08</v>
       </c>
       <c r="O14" s="7"/>
@@ -3461,47 +3667,46 @@
       <c r="T14" s="7"/>
     </row>
     <row r="15" ht="15" spans="1:20">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="I15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="8" t="s">
+      <c r="K15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="28" t="s">
+      <c r="M15" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="N15" s="7">
-        <f t="shared" si="0"/>
+      <c r="N15" s="52">
         <v>32768</v>
       </c>
       <c r="O15" s="7"/>
@@ -3512,47 +3717,46 @@
       <c r="T15" s="7"/>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:20">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="I16" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="8" t="s">
+      <c r="K16" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="N16" s="7">
-        <f t="shared" si="0"/>
+      <c r="N16" s="52">
         <v>264544</v>
       </c>
       <c r="O16" s="7"/>
@@ -3563,47 +3767,46 @@
       <c r="T16" s="7"/>
     </row>
     <row r="17" ht="15" spans="1:20">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="F17" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="I17" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="8" t="s">
+      <c r="K17" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="N17" s="7">
-        <f t="shared" si="0"/>
+      <c r="N17" s="52">
         <v>137625.6</v>
       </c>
       <c r="O17" s="7"/>
@@ -3614,48 +3817,47 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" ht="15" spans="1:20">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="E18" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="8" t="s">
+      <c r="I18" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="N18" s="7">
-        <f t="shared" si="0"/>
-        <v>32000</v>
+      <c r="N18" s="52">
+        <v>65536</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -3665,47 +3867,46 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" ht="15" spans="1:20">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="I19" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="8" t="s">
+      <c r="K19" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="N19" s="7">
-        <f t="shared" si="0"/>
+      <c r="N19" s="52">
         <v>16000</v>
       </c>
       <c r="O19" s="7"/>
@@ -3716,47 +3917,46 @@
       <c r="T19" s="7"/>
     </row>
     <row r="20" ht="15" spans="1:20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="I20" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="8" t="s">
+      <c r="K20" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="29" t="s">
+      <c r="M20" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="N20" s="7">
-        <f t="shared" si="0"/>
+      <c r="N20" s="52">
         <v>32768</v>
       </c>
       <c r="O20" s="7"/>
@@ -3767,47 +3967,46 @@
       <c r="T20" s="7"/>
     </row>
     <row r="21" ht="15" spans="1:20">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="I21" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="8" t="s">
+      <c r="K21" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="N21" s="7">
-        <f t="shared" si="0"/>
+      <c r="N21" s="52">
         <v>137232</v>
       </c>
       <c r="O21" s="7"/>
@@ -3818,47 +4017,46 @@
       <c r="T21" s="7"/>
     </row>
     <row r="22" ht="15" spans="1:20">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="I22" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="8" t="s">
+      <c r="K22" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="N22" s="7">
-        <f t="shared" si="0"/>
+      <c r="N22" s="52">
         <v>16000</v>
       </c>
       <c r="O22" s="7"/>
@@ -3869,47 +4067,46 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" ht="15" spans="1:20">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="F23" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="I23" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="8" t="s">
+      <c r="K23" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="N23" s="7">
-        <f t="shared" si="0"/>
+      <c r="N23" s="52">
         <v>18026.08</v>
       </c>
       <c r="O23" s="7"/>
@@ -3920,47 +4117,46 @@
       <c r="T23" s="7"/>
     </row>
     <row r="24" ht="15" spans="1:20">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="I24" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="8" t="s">
+      <c r="K24" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="N24" s="7">
-        <f t="shared" si="0"/>
+      <c r="N24" s="52">
         <v>49319</v>
       </c>
       <c r="O24" s="7"/>
@@ -3971,47 +4167,46 @@
       <c r="T24" s="7"/>
     </row>
     <row r="25" ht="15" spans="1:20">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="I25" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="8" t="s">
+      <c r="K25" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="N25" s="7">
-        <f t="shared" si="0"/>
+      <c r="N25" s="52">
         <v>49152</v>
       </c>
       <c r="O25" s="7"/>
@@ -4022,47 +4217,46 @@
       <c r="T25" s="7"/>
     </row>
     <row r="26" ht="15" spans="1:20">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="I26" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="8" t="s">
+      <c r="K26" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="N26" s="7">
-        <f t="shared" si="0"/>
+      <c r="N26" s="52">
         <v>16000</v>
       </c>
       <c r="O26" s="7"/>
@@ -4073,47 +4267,46 @@
       <c r="T26" s="7"/>
     </row>
     <row r="27" ht="15" spans="1:20">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="I27" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="8" t="s">
+      <c r="K27" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="N27" s="7">
-        <f t="shared" si="0"/>
+      <c r="N27" s="52">
         <v>32768</v>
       </c>
       <c r="O27" s="7"/>
@@ -4124,47 +4317,46 @@
       <c r="T27" s="7"/>
     </row>
     <row r="28" ht="15" spans="1:20">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="F28" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="I28" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="8" t="s">
+      <c r="K28" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="M28" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="N28" s="7">
-        <f t="shared" si="0"/>
+      <c r="N28" s="52">
         <v>15424</v>
       </c>
       <c r="O28" s="7"/>
@@ -4175,47 +4367,46 @@
       <c r="T28" s="7"/>
     </row>
     <row r="29" ht="15" spans="1:20">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="F29" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="I29" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="8" t="s">
+      <c r="K29" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="N29" s="7">
-        <f t="shared" si="0"/>
+      <c r="N29" s="52">
         <v>65536</v>
       </c>
       <c r="O29" s="7"/>
@@ -4226,47 +4417,46 @@
       <c r="T29" s="7"/>
     </row>
     <row r="30" ht="15" spans="1:20">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="I30" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="8" t="s">
+      <c r="K30" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="N30" s="7">
-        <f t="shared" si="0"/>
+      <c r="N30" s="52">
         <v>48992</v>
       </c>
       <c r="O30" s="7"/>
@@ -4277,47 +4467,46 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" ht="15" spans="1:20">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="I31" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="8" t="s">
+      <c r="K31" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="N31" s="7">
-        <f t="shared" si="0"/>
+      <c r="N31" s="52">
         <v>32768</v>
       </c>
       <c r="O31" s="7"/>
@@ -4328,47 +4517,46 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" ht="15" spans="1:20">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="I32" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="8" t="s">
+      <c r="K32" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="M32" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="N32" s="7">
-        <f t="shared" si="0"/>
+      <c r="N32" s="52">
         <v>16000</v>
       </c>
       <c r="O32" s="7"/>
@@ -4379,47 +4567,46 @@
       <c r="T32" s="7"/>
     </row>
     <row r="33" ht="15" spans="1:20">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="7" t="s">
+      <c r="I33" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="8" t="s">
+      <c r="K33" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="M33" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="N33" s="7">
-        <f t="shared" si="0"/>
+      <c r="N33" s="52">
         <v>16000</v>
       </c>
       <c r="O33" s="7"/>
@@ -4430,47 +4617,46 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" ht="15" spans="1:20">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="I34" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="8" t="s">
+      <c r="K34" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M34" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="N34" s="7">
-        <f t="shared" si="0"/>
+      <c r="N34" s="52">
         <v>21264</v>
       </c>
       <c r="O34" s="7"/>
@@ -4481,47 +4667,46 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" ht="15" spans="1:20">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="I35" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="8" t="s">
+      <c r="K35" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="M35" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="N35" s="7">
-        <f t="shared" si="0"/>
+      <c r="N35" s="52">
         <v>32768</v>
       </c>
       <c r="O35" s="7"/>
@@ -4532,47 +4717,46 @@
       <c r="T35" s="7"/>
     </row>
     <row r="36" ht="15" spans="1:20">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="I36" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="8" t="s">
+      <c r="K36" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="M36" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="N36" s="7">
-        <f t="shared" si="0"/>
+      <c r="N36" s="52">
         <v>49152</v>
       </c>
       <c r="O36" s="7"/>
@@ -4583,47 +4767,46 @@
       <c r="T36" s="7"/>
     </row>
     <row r="37" ht="15" spans="1:20">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="I37" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="8" t="s">
+      <c r="K37" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M37" s="30" t="s">
+      <c r="M37" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="N37" s="7">
-        <f t="shared" si="0"/>
+      <c r="N37" s="52">
         <v>53248</v>
       </c>
       <c r="O37" s="7"/>
@@ -4633,48 +4816,47 @@
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
     </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="2" t="s">
+    <row r="38" ht="13.5" spans="1:20">
+      <c r="A38" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="7" t="s">
+      <c r="F38" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="I38" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="7" t="s">
+      <c r="K38" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="M38" s="27" t="s">
+      <c r="M38" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="N38" s="7">
-        <f t="shared" si="0"/>
+      <c r="N38" s="52">
         <v>131072</v>
       </c>
       <c r="O38" s="7"/>
@@ -4684,48 +4866,47 @@
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
     </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="2" t="s">
+    <row r="39" ht="13.5" spans="1:20">
+      <c r="A39" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="7" t="s">
+      <c r="I39" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="K39" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="7" t="s">
+      <c r="K39" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="M39" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="N39" s="7">
-        <f t="shared" si="0"/>
+      <c r="N39" s="52">
         <v>19200</v>
       </c>
       <c r="O39" s="7"/>
@@ -4735,48 +4916,47 @@
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
     </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="2" t="s">
+    <row r="40" ht="13.5" spans="1:20">
+      <c r="A40" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J40" s="7" t="s">
+      <c r="I40" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="7" t="s">
+      <c r="K40" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="M40" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="N40" s="7">
-        <f t="shared" si="0"/>
+      <c r="N40" s="52">
         <v>16384</v>
       </c>
       <c r="O40" s="7"/>
@@ -4786,48 +4966,47 @@
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
     </row>
-    <row r="41" ht="13.5" spans="1:20">
-      <c r="A41" s="2" t="s">
+    <row r="41" ht="14.25" spans="1:20">
+      <c r="A41" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J41" s="7" t="s">
+      <c r="I41" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K41" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" s="7" t="s">
+      <c r="K41" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="M41" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="N41" s="7">
-        <f t="shared" si="0"/>
+      <c r="N41" s="52">
         <v>98304</v>
       </c>
       <c r="O41" s="7"/>
@@ -4838,47 +5017,46 @@
       <c r="T41" s="7"/>
     </row>
     <row r="42" ht="15" spans="1:20">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J42" s="7" t="s">
+      <c r="I42" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K42" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" s="7" t="s">
+      <c r="K42" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="M42" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="N42" s="7">
-        <f t="shared" si="0"/>
+      <c r="N42" s="52">
         <v>50752</v>
       </c>
       <c r="O42" s="7"/>
@@ -4889,47 +5067,46 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:20">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="I43" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L43" s="7" t="s">
+      <c r="K43" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="M43" s="7" t="s">
+      <c r="M43" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="N43" s="7">
-        <f t="shared" si="0"/>
+      <c r="N43" s="52">
         <v>32768</v>
       </c>
       <c r="O43" s="7"/>
@@ -6732,7 +6909,7 @@
     </row>
     <row r="11" ht="15" spans="1:21">
       <c r="A11" s="19" t="s">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>82</v>
@@ -7007,7 +7184,7 @@
         <v>119</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>120</v>
+        <v>363</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>20</v>
@@ -7096,7 +7273,7 @@
     </row>
     <row r="18" ht="15" spans="1:21">
       <c r="A18" s="20" t="s">
-        <v>129</v>
+        <v>364</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>130</v>
@@ -7132,7 +7309,7 @@
         <v>21</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>133</v>
+        <v>365</v>
       </c>
       <c r="N18" s="7">
         <f t="shared" si="0"/>
@@ -7160,7 +7337,7 @@
         <v>17</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>19</v>
@@ -7200,7 +7377,7 @@
     </row>
     <row r="20" ht="15" spans="1:21">
       <c r="A20" s="2" t="s">
-        <v>140</v>
+        <v>367</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>141</v>
@@ -7368,7 +7545,7 @@
         <v>162</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
@@ -7576,7 +7753,7 @@
         <v>63</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>65</v>
@@ -7824,7 +8001,7 @@
     </row>
     <row r="32" ht="15" spans="1:21">
       <c r="A32" s="19" t="s">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>82</v>
@@ -8099,7 +8276,7 @@
         <v>119</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>120</v>
+        <v>363</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>20</v>
@@ -8200,7 +8377,7 @@
         <v>261</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>263</v>
@@ -8292,7 +8469,7 @@
     </row>
     <row r="41" ht="15" spans="1:21">
       <c r="A41" s="20" t="s">
-        <v>129</v>
+        <v>364</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>130</v>
@@ -8328,7 +8505,7 @@
         <v>21</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>133</v>
+        <v>365</v>
       </c>
       <c r="N41" s="7">
         <f t="shared" si="0"/>
@@ -8396,7 +8573,7 @@
     </row>
     <row r="43" ht="15" spans="1:21">
       <c r="A43" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>279</v>
@@ -8408,7 +8585,7 @@
         <v>281</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>283</v>
@@ -8432,7 +8609,7 @@
         <v>31</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="N43" s="7">
         <f t="shared" si="0"/>
@@ -8448,7 +8625,7 @@
     </row>
     <row r="44" ht="15" spans="1:21">
       <c r="A44" s="2" t="s">
-        <v>140</v>
+        <v>367</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>141</v>
@@ -8512,7 +8689,7 @@
         <v>149</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>151</v>
@@ -8668,7 +8845,7 @@
         <v>168</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>170</v>
@@ -9448,7 +9625,7 @@
         <v>261</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>263</v>
@@ -9644,7 +9821,7 @@
     </row>
     <row r="67" ht="15" spans="1:21">
       <c r="A67" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>279</v>
@@ -9680,7 +9857,7 @@
         <v>31</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="N67" s="7">
         <f>IF(COUNTIF(E67,"*T")=1,LEFT(E67,LEN(E67)-1)*1024/LEFT(G67,LEN(G67)-1),LEFT(E67,LEN(E67)-1)*1024*1024/LEFT(G67,LEN(G67)-1))</f>
@@ -13669,25 +13846,25 @@
         <v>9</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -13704,25 +13881,25 @@
     </row>
     <row r="2" ht="15" spans="1:20">
       <c r="A2" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H2" s="7">
         <v>55</v>
@@ -13742,16 +13919,16 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>50</v>
@@ -13760,7 +13937,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="H3" s="7">
         <v>5</v>
@@ -13780,13 +13957,13 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -13810,16 +13987,16 @@
     </row>
     <row r="5" ht="15" spans="1:20">
       <c r="A5" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>57</v>
@@ -13828,7 +14005,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -13848,16 +14025,16 @@
     </row>
     <row r="6" ht="15" spans="1:20">
       <c r="A6" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>50</v>
@@ -13866,7 +14043,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -13908,13 +14085,13 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -13922,7 +14099,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -13942,19 +14119,19 @@
     </row>
     <row r="9" ht="15" spans="1:20">
       <c r="A9" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F9" s="7">
         <v>2</v>
@@ -13974,13 +14151,13 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -13988,7 +14165,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -14008,16 +14185,16 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>50</v>
@@ -14026,7 +14203,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -14046,25 +14223,25 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F12" s="7">
         <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -14084,16 +14261,16 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>85</v>
@@ -14102,7 +14279,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -14936,28 +15113,28 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -14974,28 +15151,28 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>427</v>
-      </c>
       <c r="G52" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -15012,28 +15189,28 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>427</v>
-      </c>
       <c r="G53" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -15050,28 +15227,28 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -15116,28 +15293,28 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -15154,28 +15331,28 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>446</v>
-      </c>
       <c r="G58" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -15192,28 +15369,28 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -15230,28 +15407,28 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -15268,22 +15445,22 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="G61" s="7">
         <v>0</v>
@@ -15306,28 +15483,28 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -19203,7 +19380,7 @@
   <sheetPr/>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
